--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
@@ -58,7 +58,7 @@
     <t>無名</t>
   </si>
   <si>
-    <t>作者</t>
+    <t>未歸類</t>
   </si>
   <si>
     <t>女</t>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Identity.xlsx
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
